--- a/data/promotion_results.xlsx
+++ b/data/promotion_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="119">
   <si>
     <t>Ngày</t>
   </si>
@@ -43,64 +43,331 @@
     <t>Cửa hàng thừa</t>
   </si>
   <si>
+    <t>2024-12-01</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1124-00010</t>
+  </si>
+  <si>
+    <t>WINPLUS</t>
+  </si>
+  <si>
+    <t>Thừa</t>
+  </si>
+  <si>
+    <t>TYPE000887, TYPE000886, TYPE000885</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>STR-VINP-04284, STR-VINP-06100</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1124-00009</t>
+  </si>
+  <si>
+    <t>STR-VINP-06100</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1124-00008</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1124-00007</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1124-00006</t>
+  </si>
+  <si>
+    <t>Đủ</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>TYPE000886, TYPE000885, TYPE000887</t>
+  </si>
+  <si>
+    <t>STR-VINP-03837, STR-VINP-03838, STR-VINP-09667</t>
+  </si>
+  <si>
+    <t>STR-VINP-03838</t>
+  </si>
+  <si>
+    <t>2024-12-03</t>
+  </si>
+  <si>
+    <t>TYPE000887, TYPE000885, TYPE000886</t>
+  </si>
+  <si>
+    <t>STR-VINP-03812</t>
+  </si>
+  <si>
+    <t>2024-12-04</t>
+  </si>
+  <si>
+    <t>Thiếu</t>
+  </si>
+  <si>
+    <t>STR-VINP-05981, STR-VINP-09981</t>
+  </si>
+  <si>
+    <t>2024-12-05</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00004</t>
+  </si>
+  <si>
+    <t>TYPE000885, TYPE000886, TYPE000887</t>
+  </si>
+  <si>
+    <t>STR-VINP-03536, STR-VINP-03548, STR-VINP-03859, STR-VINP-03936, STR-VINP-04092, STR-VINP-04154, STR-VINP-04161, STR-VINP-04383, STR-VINP-04394, STR-VINP-04396, STR-VINP-04489, STR-VINP-04491, STR-VINP-04492, STR-VINP-04807, STR-VINP-05000, STR-VINP-05036, STR-VINP-05116, STR-VINP-05180, STR-VINP-05208, STR-VINP-05239, STR-VINP-05300, STR-VINP-05304, STR-VINP-05313, STR-VINP-05381, STR-VINP-05404, STR-VINP-05415, STR-VINP-05441, STR-VINP-05447, STR-VINP-05460, STR-VINP-05473, STR-VINP-05481, STR-VINP-05497, STR-VINP-05498, STR-VINP-05527, STR-VINP-05529, STR-VINP-05632, STR-VINP-05730, STR-VINP-05782, STR-VINP-05825, STR-VINP-05885, STR-VINP-05998, STR-VINP-06066, STR-VINP-06080, STR-VINP-06084, STR-VINP-06115, STR-VINP-06191, STR-VINP-07039, STR-VINP-07786, STR-VINP-07845, STR-VINP-07999, STR-VINP-09325, STR-VINP-09358, STR-VINP-09552, STR-VINP-09597, STR-VINP-09848, STR-VINP-09873, STR-VINP-10876, STR-VINP-11172, STR-VINP-11297, STR-VINP-11608</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00003</t>
+  </si>
+  <si>
+    <t>STR-VINP-03536, STR-VINP-03548, STR-VINP-03859, STR-VINP-03936, STR-VINP-04092, STR-VINP-04154, STR-VINP-04161, STR-VINP-04383, STR-VINP-04394, STR-VINP-04396, STR-VINP-04489, STR-VINP-04491, STR-VINP-04492, STR-VINP-04807, STR-VINP-05000, STR-VINP-05036, STR-VINP-05116, STR-VINP-05180, STR-VINP-05208, STR-VINP-05239, STR-VINP-05300, STR-VINP-05304, STR-VINP-05313, STR-VINP-05381, STR-VINP-05404, STR-VINP-05415, STR-VINP-05441, STR-VINP-05447, STR-VINP-05460, STR-VINP-05473, STR-VINP-05481, STR-VINP-05497, STR-VINP-05498, STR-VINP-05527, STR-VINP-05529, STR-VINP-05632, STR-VINP-05730, STR-VINP-05782, STR-VINP-05825, STR-VINP-05885, STR-VINP-05998, STR-VINP-06066, STR-VINP-06080, STR-VINP-06084, STR-VINP-06115, STR-VINP-06191, STR-VINP-07039, STR-VINP-07786, STR-VINP-07845, STR-VINP-07999, STR-VINP-09325, STR-VINP-09358, STR-VINP-09552, STR-VINP-09597, STR-VINP-09848, STR-VINP-09873, STR-VINP-10876, STR-VINP-11172, STR-VINP-11297, STR-VINP-11608, STR-VINP-03936</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00002</t>
+  </si>
+  <si>
+    <t>TYPE000885, TYPE000886</t>
+  </si>
+  <si>
+    <t>STR-VINP-03536, STR-VINP-03548, STR-VINP-03859, STR-VINP-03936, STR-VINP-04092, STR-VINP-04154, STR-VINP-04161, STR-VINP-04383, STR-VINP-04394, STR-VINP-04396, STR-VINP-04489, STR-VINP-04491, STR-VINP-04492, STR-VINP-04807, STR-VINP-05000, STR-VINP-05036, STR-VINP-05116, STR-VINP-05180, STR-VINP-05208, STR-VINP-05239, STR-VINP-05300, STR-VINP-05304, STR-VINP-05313, STR-VINP-05381, STR-VINP-05404, STR-VINP-05415, STR-VINP-05441, STR-VINP-05447, STR-VINP-05460, STR-VINP-05473, STR-VINP-05481, STR-VINP-05497, STR-VINP-05498, STR-VINP-05527, STR-VINP-05529, STR-VINP-05632, STR-VINP-05730, STR-VINP-05782, STR-VINP-05825, STR-VINP-05885, STR-VINP-05998, STR-VINP-06066, STR-VINP-06080, STR-VINP-06084, STR-VINP-06115, STR-VINP-06191, STR-VINP-07039, STR-VINP-07786, STR-VINP-07845, STR-VINP-07999, STR-VINP-09358, STR-VINP-09552, STR-VINP-09597, STR-VINP-09848, STR-VINP-09873, STR-VINP-11172, STR-VINP-11297, STR-VINP-11608, STR-VINP-03936</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00001</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00005</t>
+  </si>
+  <si>
+    <t>TYPE000886, TYPE000887</t>
+  </si>
+  <si>
+    <t>STR-VINP-03548, STR-VINP-04161, STR-VINP-04394, STR-VINP-04396, STR-VINP-04489, STR-VINP-04491, STR-VINP-05116, STR-VINP-05180, STR-VINP-05304, STR-VINP-05441, STR-VINP-05473, STR-VINP-05998, STR-VINP-06066, STR-VINP-06080, STR-VINP-06115, STR-VINP-07786, STR-VINP-07845, STR-VINP-07999, STR-VINP-09325, STR-VINP-09358, STR-VINP-09552, STR-VINP-10876</t>
+  </si>
+  <si>
+    <t>2024-12-06</t>
+  </si>
+  <si>
+    <t>2024-12-07</t>
+  </si>
+  <si>
+    <t>STR-VINP-06085, STR-VINP-06098</t>
+  </si>
+  <si>
+    <t>STR-VINP-09607</t>
+  </si>
+  <si>
+    <t>TYPE000886</t>
+  </si>
+  <si>
+    <t>2024-12-08</t>
+  </si>
+  <si>
+    <t>TYPE000887, TYPE000886</t>
+  </si>
+  <si>
+    <t>STR-VINP-05108</t>
+  </si>
+  <si>
+    <t>STR-VINP-09890</t>
+  </si>
+  <si>
+    <t>TYPE000886, TYPE000885</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>STR-VINP-04983</t>
+  </si>
+  <si>
+    <t>STR-VINP-05608</t>
+  </si>
+  <si>
+    <t>STR-VINP-05608, STR-VINP-07941</t>
+  </si>
+  <si>
+    <t>2024-12-10</t>
+  </si>
+  <si>
+    <t>STR-VINP-05176, STR-VINP-05367</t>
+  </si>
+  <si>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>STR-VINP-04299, STR-VINP-05593</t>
+  </si>
+  <si>
+    <t>STR-VINP-04302</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>2024-12-13</t>
+  </si>
+  <si>
+    <t>STR-VINP-05057</t>
+  </si>
+  <si>
+    <t>2024-12-14</t>
+  </si>
+  <si>
+    <t>TYPE000885, TYPE000887, TYPE000886</t>
+  </si>
+  <si>
+    <t>2024-12-15</t>
+  </si>
+  <si>
+    <t>TYPE000886, TYPE000887, TYPE000885</t>
+  </si>
+  <si>
+    <t>STR-VINP-04287</t>
+  </si>
+  <si>
+    <t>STR-VINP-06123</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>STR-VINP-05989</t>
+  </si>
+  <si>
+    <t>2024-12-17</t>
+  </si>
+  <si>
+    <t>STR-VINP-09557</t>
+  </si>
+  <si>
+    <t>2024-12-18</t>
+  </si>
+  <si>
+    <t>STR-VINP-06010</t>
+  </si>
+  <si>
+    <t>STR-VINP-05724</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00010</t>
+  </si>
+  <si>
+    <t>STR-VINP-03845, STR-VINP-03861, STR-VINP-04291, STR-VINP-04383, STR-VINP-04570, STR-VINP-04571, STR-VINP-04583, STR-VINP-04762, STR-VINP-05008, STR-VINP-05176, STR-VINP-05296, STR-VINP-05314, STR-VINP-05334, STR-VINP-05367, STR-VINP-05389, STR-VINP-05410, STR-VINP-05412, STR-VINP-05424, STR-VINP-05548, STR-VINP-05558, STR-VINP-05633, STR-VINP-05781, STR-VINP-05844, STR-VINP-05886, STR-VINP-05887, STR-VINP-05891, STR-VINP-05917, STR-VINP-06024, STR-VINP-06071, STR-VINP-07136, STR-VINP-09312, STR-VINP-09528, STR-VINP-09558, STR-VINP-09575, STR-VINP-09620, STR-VINP-09698, STR-VINP-09701, STR-VINP-09728, STR-VINP-09804, STR-VINP-09887, STR-VINP-09930, STR-VINP-09952, STR-VINP-11090, STR-VINP-11551, STR-VINP-11863</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00009</t>
+  </si>
+  <si>
+    <t>STR-VINP-03845, STR-VINP-03861, STR-VINP-04291, STR-VINP-04383, STR-VINP-04570, STR-VINP-04571, STR-VINP-04583, STR-VINP-04762, STR-VINP-05008, STR-VINP-05176, STR-VINP-05296, STR-VINP-05314, STR-VINP-05334, STR-VINP-05367, STR-VINP-05389, STR-VINP-05410, STR-VINP-05412, STR-VINP-05424, STR-VINP-05548, STR-VINP-05558, STR-VINP-05633, STR-VINP-05781, STR-VINP-05844, STR-VINP-05886, STR-VINP-05887, STR-VINP-05891, STR-VINP-05917, STR-VINP-06024, STR-VINP-06071, STR-VINP-07136, STR-VINP-09312, STR-VINP-09528, STR-VINP-09558, STR-VINP-09575, STR-VINP-09620, STR-VINP-09698, STR-VINP-09701, STR-VINP-09728, STR-VINP-09804, STR-VINP-09887, STR-VINP-09930, STR-VINP-09952, STR-VINP-11090, STR-VINP-11551, STR-VINP-11863, STR-VINP-09558, STR-VINP-11863</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00008</t>
+  </si>
+  <si>
+    <t>STR-VINP-03845, STR-VINP-03861, STR-VINP-04291, STR-VINP-04383, STR-VINP-04570, STR-VINP-04571, STR-VINP-04583, STR-VINP-04762, STR-VINP-05008, STR-VINP-05176, STR-VINP-05296, STR-VINP-05314, STR-VINP-05334, STR-VINP-05367, STR-VINP-05389, STR-VINP-05410, STR-VINP-05412, STR-VINP-05424, STR-VINP-05548, STR-VINP-05558, STR-VINP-05633, STR-VINP-05781, STR-VINP-05844, STR-VINP-05886, STR-VINP-05887, STR-VINP-05891, STR-VINP-05917, STR-VINP-06024, STR-VINP-06071, STR-VINP-07136, STR-VINP-09312, STR-VINP-09528, STR-VINP-09558, STR-VINP-09575, STR-VINP-09620, STR-VINP-09698, STR-VINP-09701, STR-VINP-09728, STR-VINP-09804, STR-VINP-09887, STR-VINP-09930, STR-VINP-09952, STR-VINP-11090, STR-VINP-11551, STR-VINP-11863, STR-VINP-09930, STR-VINP-11863</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00007</t>
+  </si>
+  <si>
+    <t>PRO-VINP-1224-00006</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>STR-VINP-04387</t>
+  </si>
+  <si>
+    <t>STR-VINP-04301</t>
+  </si>
+  <si>
+    <t>STR-VINP-04387, STR-VINP-11271</t>
+  </si>
+  <si>
+    <t>2024-12-21</t>
+  </si>
+  <si>
+    <t>STR-VINP-05382</t>
+  </si>
+  <si>
+    <t>2024-12-22</t>
+  </si>
+  <si>
+    <t>STR-VINP-04131</t>
+  </si>
+  <si>
+    <t>STR-VINP-11599, STR-VINP-11958</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>STR-VINP-04215</t>
+  </si>
+  <si>
+    <t>STR-VINP-05743, STR-VINP-05744, STR-VINP-05816, STR-VINP-05936, STR-VINP-11470</t>
+  </si>
+  <si>
+    <t>STR-VINP-11470</t>
+  </si>
+  <si>
+    <t>2024-12-24</t>
+  </si>
+  <si>
+    <t>STR-VINP-07792</t>
+  </si>
+  <si>
+    <t>2024-12-25</t>
+  </si>
+  <si>
+    <t>STR-VINP-04362</t>
+  </si>
+  <si>
+    <t>STR-VINP-09989</t>
+  </si>
+  <si>
+    <t>2024-12-26</t>
+  </si>
+  <si>
     <t>2024-12-27</t>
   </si>
   <si>
-    <t>PRO-VINP-1224-00010</t>
-  </si>
-  <si>
-    <t>WINPLUS</t>
-  </si>
-  <si>
-    <t>Thiếu</t>
-  </si>
-  <si>
-    <t>TYPE000887, TYPE000886, TYPE000885</t>
-  </si>
-  <si>
-    <t>STR-VINP-12411, STR-VINP-05003</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>PRO-VINP-1224-00007</t>
-  </si>
-  <si>
-    <t>STR-VINP-12411</t>
-  </si>
-  <si>
-    <t>PRO-VINP-1224-00006</t>
-  </si>
-  <si>
-    <t>STR-VINP-11694</t>
-  </si>
-  <si>
-    <t>PRO-VINP-1224-00009</t>
-  </si>
-  <si>
-    <t>STR-VINP-11694, STR-VINP-12411</t>
-  </si>
-  <si>
-    <t>PRO-VINP-1224-00008</t>
-  </si>
-  <si>
-    <t>STR-VINP-11694, STR-VINP-12411, STR-VINP-05003</t>
-  </si>
-  <si>
-    <t>2024-12-26</t>
-  </si>
-  <si>
-    <t>Đủ</t>
-  </si>
-  <si>
-    <t>2024-12-25</t>
-  </si>
-  <si>
-    <t>TYPE000886, TYPE000885, TYPE000887</t>
-  </si>
-  <si>
-    <t>STR-VINP-04362</t>
+    <t>STR-VINP-05003</t>
+  </si>
+  <si>
+    <t>2024-12-28</t>
+  </si>
+  <si>
+    <t>STR-VINP-07944</t>
+  </si>
+  <si>
+    <t>STR-VINP-04293</t>
+  </si>
+  <si>
+    <t>STR-VINP-09581</t>
+  </si>
+  <si>
+    <t>2024-12-29</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>STR-VINP-05327</t>
+  </si>
+  <si>
+    <t>STR-VINP-10013</t>
   </si>
 </sst>
 </file>
@@ -481,7 +748,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J151"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
@@ -530,13 +797,13 @@
         <v>12</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -562,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -577,10 +844,10 @@
         <v>14</v>
       </c>
       <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -594,13 +861,13 @@
         <v>12</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -609,10 +876,10 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -620,19 +887,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -641,10 +908,10 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -652,36 +919,36 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -690,153 +957,153 @@
         <v>12</v>
       </c>
       <c r="D7">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E7">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
       </c>
       <c r="D8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E9">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
         <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
       </c>
       <c r="D10">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
         <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
       <c r="D11">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="E11">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -850,25 +1117,25 @@
         <v>12</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>28</v>
       </c>
       <c r="I12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -876,31 +1143,31 @@
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
         <v>12</v>
       </c>
       <c r="D13">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>28</v>
       </c>
       <c r="I13" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -908,31 +1175,31 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E14">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="H14" t="s">
         <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -940,31 +1207,31 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s">
         <v>12</v>
       </c>
       <c r="D15">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E15">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>28</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -972,31 +1239,4351 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
         <v>12</v>
       </c>
       <c r="D16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
         <v>28</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <v>-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <v>28</v>
+      </c>
+      <c r="F18">
+        <v>-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>30</v>
+      </c>
+      <c r="E19">
+        <v>28</v>
+      </c>
+      <c r="F19">
+        <v>-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20">
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>30</v>
+      </c>
+      <c r="E21">
+        <v>30</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>61</v>
+      </c>
+      <c r="F23">
+        <v>61</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>59</v>
+      </c>
+      <c r="F24">
+        <v>59</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>41</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>41</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30">
+        <v>41</v>
+      </c>
+      <c r="E30">
+        <v>41</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H30" t="s">
+        <v>35</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>19</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>49</v>
+      </c>
+      <c r="E32">
+        <v>47</v>
+      </c>
+      <c r="F32">
+        <v>-2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>40</v>
+      </c>
+      <c r="I32" t="s">
+        <v>48</v>
+      </c>
+      <c r="J32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33">
+        <v>49</v>
+      </c>
+      <c r="E33">
+        <v>48</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+      <c r="G33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>49</v>
+      </c>
+      <c r="E34">
+        <v>48</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>22</v>
+      </c>
+      <c r="H35" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>23</v>
+      </c>
+      <c r="E36">
+        <v>23</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
+      <c r="H36" t="s">
+        <v>50</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <v>35</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>60</v>
+      </c>
+      <c r="E38">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>60</v>
+      </c>
+      <c r="E39">
+        <v>61</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>60</v>
+      </c>
+      <c r="E40">
+        <v>60</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>42</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>13</v>
+      </c>
+      <c r="H41" t="s">
+        <v>55</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>34</v>
+      </c>
+      <c r="E42">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H42" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>55</v>
+      </c>
+      <c r="E43">
+        <v>55</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" t="s">
+        <v>57</v>
+      </c>
+      <c r="J43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>56</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>34</v>
+      </c>
+      <c r="E45">
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" t="s">
+        <v>55</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B46" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>55</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+      <c r="H46" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>20</v>
+      </c>
+      <c r="E47">
+        <v>20</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H47" t="s">
+        <v>44</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>58</v>
+      </c>
+      <c r="E48">
+        <v>58</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>58</v>
+      </c>
+      <c r="E49">
+        <v>58</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>54</v>
+      </c>
+      <c r="E50">
+        <v>56</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>13</v>
+      </c>
+      <c r="H50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51">
+        <v>58</v>
+      </c>
+      <c r="E51">
+        <v>58</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>21</v>
+      </c>
+      <c r="E52">
+        <v>21</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52" t="s">
+        <v>22</v>
+      </c>
+      <c r="H52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53">
+        <v>50</v>
+      </c>
+      <c r="E53">
+        <v>50</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53" t="s">
+        <v>22</v>
+      </c>
+      <c r="H53" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54">
+        <v>50</v>
+      </c>
+      <c r="E54">
+        <v>50</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>48</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
+      <c r="H55" t="s">
+        <v>55</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="E56">
+        <v>51</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>13</v>
+      </c>
+      <c r="H56" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57">
+        <v>27</v>
+      </c>
+      <c r="E57">
+        <v>27</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>22</v>
+      </c>
+      <c r="H57" t="s">
+        <v>44</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58">
+        <v>58</v>
+      </c>
+      <c r="E58">
+        <v>58</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>22</v>
+      </c>
+      <c r="H58" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C59" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+      <c r="E59">
+        <v>58</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60">
+        <v>42</v>
+      </c>
+      <c r="E60">
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61">
+        <v>58</v>
+      </c>
+      <c r="E61">
+        <v>58</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62">
+        <v>39</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62" t="s">
+        <v>40</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63">
+        <v>39</v>
+      </c>
+      <c r="E63">
+        <v>38</v>
+      </c>
+      <c r="F63">
+        <v>-1</v>
+      </c>
+      <c r="G63" t="s">
+        <v>31</v>
+      </c>
+      <c r="H63" t="s">
+        <v>40</v>
+      </c>
+      <c r="I63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>39</v>
+      </c>
+      <c r="E64">
+        <v>38</v>
+      </c>
+      <c r="F64">
+        <v>-1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65">
+        <v>39</v>
+      </c>
+      <c r="E65">
+        <v>39</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65" t="s">
+        <v>40</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67">
+        <v>41</v>
+      </c>
+      <c r="E67">
+        <v>41</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67" t="s">
+        <v>69</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C68" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68">
+        <v>41</v>
+      </c>
+      <c r="E68">
+        <v>41</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68" t="s">
+        <v>69</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>24</v>
+      </c>
+      <c r="E69">
+        <v>24</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69" t="s">
+        <v>40</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70">
+        <v>41</v>
+      </c>
+      <c r="E70">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" t="s">
+        <v>69</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71">
+        <v>23</v>
+      </c>
+      <c r="E71">
+        <v>23</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C72" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72">
+        <v>42</v>
+      </c>
+      <c r="E72">
+        <v>42</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72" t="s">
+        <v>44</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73">
+        <v>59</v>
+      </c>
+      <c r="E73">
+        <v>60</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>71</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>70</v>
+      </c>
+      <c r="B74" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74">
+        <v>59</v>
+      </c>
+      <c r="E74">
+        <v>59</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>22</v>
+      </c>
+      <c r="H74" t="s">
+        <v>71</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B75" t="s">
+        <v>39</v>
+      </c>
+      <c r="C75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75">
+        <v>38</v>
+      </c>
+      <c r="E75">
+        <v>39</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>55</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>59</v>
+      </c>
+      <c r="E76">
+        <v>59</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>22</v>
+      </c>
+      <c r="H76" t="s">
+        <v>71</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>74</v>
+      </c>
+      <c r="B77" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77">
+        <v>38</v>
+      </c>
+      <c r="E77">
+        <v>38</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>22</v>
+      </c>
+      <c r="H77" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78">
+        <v>51</v>
+      </c>
+      <c r="E78">
+        <v>51</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>22</v>
+      </c>
+      <c r="H78" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>37</v>
+      </c>
+      <c r="C79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79">
+        <v>51</v>
+      </c>
+      <c r="E79">
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>22</v>
+      </c>
+      <c r="H79" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80">
+        <v>33</v>
+      </c>
+      <c r="E80">
+        <v>33</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>55</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81">
+        <v>51</v>
+      </c>
+      <c r="E81">
+        <v>51</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" t="s">
+        <v>75</v>
+      </c>
+      <c r="J81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82">
+        <v>53</v>
+      </c>
+      <c r="E82">
+        <v>53</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>22</v>
+      </c>
+      <c r="H82" t="s">
+        <v>35</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>53</v>
+      </c>
+      <c r="E83">
+        <v>54</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>13</v>
+      </c>
+      <c r="H83" t="s">
+        <v>35</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84">
+        <v>40</v>
+      </c>
+      <c r="E84">
+        <v>40</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>22</v>
+      </c>
+      <c r="H84" t="s">
+        <v>40</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>42</v>
+      </c>
+      <c r="C85" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85">
+        <v>53</v>
+      </c>
+      <c r="E85">
+        <v>54</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>35</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>29</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>44</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>78</v>
+      </c>
+      <c r="B87" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>25</v>
+      </c>
+      <c r="E87">
+        <v>24</v>
+      </c>
+      <c r="F87">
+        <v>-1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" t="s">
+        <v>79</v>
+      </c>
+      <c r="J87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>53</v>
+      </c>
+      <c r="E88">
+        <v>52</v>
+      </c>
+      <c r="F88">
+        <v>-1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>31</v>
+      </c>
+      <c r="H88" t="s">
+        <v>28</v>
+      </c>
+      <c r="I88" t="s">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <v>54</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" t="s">
+        <v>28</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>78</v>
+      </c>
+      <c r="B90" t="s">
+        <v>42</v>
+      </c>
+      <c r="C90" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90">
+        <v>53</v>
+      </c>
+      <c r="E90">
+        <v>53</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>22</v>
+      </c>
+      <c r="H90" t="s">
+        <v>28</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" t="s">
+        <v>39</v>
+      </c>
+      <c r="C91" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91">
+        <v>41</v>
+      </c>
+      <c r="E91">
+        <v>42</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>13</v>
+      </c>
+      <c r="H91" t="s">
+        <v>40</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>81</v>
+      </c>
+      <c r="B92" t="s">
+        <v>82</v>
+      </c>
+      <c r="C92" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>45</v>
+      </c>
+      <c r="F92">
+        <v>45</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
+      <c r="H92" t="s">
+        <v>40</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>81</v>
+      </c>
+      <c r="B93" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>47</v>
+      </c>
+      <c r="F93">
+        <v>47</v>
+      </c>
+      <c r="G93" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" t="s">
+        <v>40</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>81</v>
+      </c>
+      <c r="B94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>47</v>
+      </c>
+      <c r="F94">
+        <v>47</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>40</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>81</v>
+      </c>
+      <c r="B95" t="s">
+        <v>88</v>
+      </c>
+      <c r="C95" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>45</v>
+      </c>
+      <c r="F95">
+        <v>45</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
+      <c r="H95" t="s">
+        <v>40</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>81</v>
+      </c>
+      <c r="B96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>45</v>
+      </c>
+      <c r="F96">
+        <v>45</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" t="s">
+        <v>40</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B97" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97">
+        <v>30</v>
+      </c>
+      <c r="E97">
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97" t="s">
+        <v>55</v>
+      </c>
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>90</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98">
+        <v>30</v>
+      </c>
+      <c r="E98">
+        <v>31</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" t="s">
+        <v>55</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99" t="s">
+        <v>86</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99">
+        <v>30</v>
+      </c>
+      <c r="E99">
+        <v>31</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>55</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" t="s">
+        <v>88</v>
+      </c>
+      <c r="C100" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100">
+        <v>30</v>
+      </c>
+      <c r="E100">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>55</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101">
+        <v>30</v>
+      </c>
+      <c r="E101">
+        <v>30</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>22</v>
+      </c>
+      <c r="H101" t="s">
+        <v>55</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>24</v>
+      </c>
+      <c r="E102">
+        <v>24</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>22</v>
+      </c>
+      <c r="H102" t="s">
+        <v>35</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>94</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103">
+        <v>24</v>
+      </c>
+      <c r="E103">
+        <v>24</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>22</v>
+      </c>
+      <c r="H103" t="s">
+        <v>35</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+      <c r="B104" t="s">
+        <v>86</v>
+      </c>
+      <c r="C104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104">
+        <v>24</v>
+      </c>
+      <c r="E104">
+        <v>24</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>22</v>
+      </c>
+      <c r="H104" t="s">
+        <v>35</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" t="s">
+        <v>88</v>
+      </c>
+      <c r="C105" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105">
+        <v>24</v>
+      </c>
+      <c r="E105">
+        <v>23</v>
+      </c>
+      <c r="F105">
+        <v>-1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" t="s">
+        <v>35</v>
+      </c>
+      <c r="I105" t="s">
+        <v>95</v>
+      </c>
+      <c r="J105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>94</v>
+      </c>
+      <c r="B106" t="s">
+        <v>89</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>24</v>
+      </c>
+      <c r="E106">
+        <v>24</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>22</v>
+      </c>
+      <c r="H106" t="s">
+        <v>35</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107">
+        <v>35</v>
+      </c>
+      <c r="E107">
+        <v>36</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" t="s">
+        <v>35</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>96</v>
+      </c>
+      <c r="B108" t="s">
+        <v>84</v>
+      </c>
+      <c r="C108" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108">
+        <v>35</v>
+      </c>
+      <c r="E108">
+        <v>37</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" t="s">
+        <v>35</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>96</v>
+      </c>
+      <c r="B109" t="s">
+        <v>86</v>
+      </c>
+      <c r="C109" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109">
+        <v>35</v>
+      </c>
+      <c r="E109">
+        <v>35</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>22</v>
+      </c>
+      <c r="H109" t="s">
+        <v>35</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>96</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>35</v>
+      </c>
+      <c r="E110">
+        <v>35</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>22</v>
+      </c>
+      <c r="H110" t="s">
+        <v>35</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>96</v>
+      </c>
+      <c r="B111" t="s">
+        <v>89</v>
+      </c>
+      <c r="C111" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111">
+        <v>35</v>
+      </c>
+      <c r="E111">
+        <v>35</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>22</v>
+      </c>
+      <c r="H111" t="s">
+        <v>35</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>99</v>
+      </c>
+      <c r="B112" t="s">
+        <v>82</v>
+      </c>
+      <c r="C112" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112">
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>42</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>22</v>
+      </c>
+      <c r="H112" t="s">
+        <v>69</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>99</v>
+      </c>
+      <c r="B113" t="s">
+        <v>84</v>
+      </c>
+      <c r="C113" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113">
+        <v>42</v>
+      </c>
+      <c r="E113">
+        <v>46</v>
+      </c>
+      <c r="F113">
+        <v>4</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
+      <c r="H113" t="s">
+        <v>69</v>
+      </c>
+      <c r="I113" t="s">
+        <v>100</v>
+      </c>
+      <c r="J113" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>99</v>
+      </c>
+      <c r="B114" t="s">
+        <v>86</v>
+      </c>
+      <c r="C114" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114">
+        <v>42</v>
+      </c>
+      <c r="E114">
+        <v>42</v>
+      </c>
+      <c r="F114">
+        <v>0</v>
+      </c>
+      <c r="G114" t="s">
+        <v>22</v>
+      </c>
+      <c r="H114" t="s">
+        <v>69</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>99</v>
+      </c>
+      <c r="B115" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115">
+        <v>42</v>
+      </c>
+      <c r="E115">
+        <v>42</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="G115" t="s">
+        <v>22</v>
+      </c>
+      <c r="H115" t="s">
+        <v>69</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>89</v>
+      </c>
+      <c r="C116" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116">
+        <v>42</v>
+      </c>
+      <c r="E116">
+        <v>43</v>
+      </c>
+      <c r="F116">
+        <v>1</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
+      <c r="H116" t="s">
+        <v>69</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117">
+        <v>34</v>
+      </c>
+      <c r="E117">
+        <v>34</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117" t="s">
+        <v>22</v>
+      </c>
+      <c r="H117" t="s">
+        <v>40</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>103</v>
+      </c>
+      <c r="B118" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118">
+        <v>34</v>
+      </c>
+      <c r="E118">
+        <v>34</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118" t="s">
+        <v>22</v>
+      </c>
+      <c r="H118" t="s">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" t="s">
+        <v>86</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119">
+        <v>34</v>
+      </c>
+      <c r="E119">
+        <v>34</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119" t="s">
+        <v>22</v>
+      </c>
+      <c r="H119" t="s">
+        <v>40</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>103</v>
+      </c>
+      <c r="B120" t="s">
+        <v>88</v>
+      </c>
+      <c r="C120" t="s">
+        <v>12</v>
+      </c>
+      <c r="D120">
+        <v>34</v>
+      </c>
+      <c r="E120">
+        <v>33</v>
+      </c>
+      <c r="F120">
+        <v>-1</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="H120" t="s">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s">
+        <v>104</v>
+      </c>
+      <c r="J120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>89</v>
+      </c>
+      <c r="C121" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121">
+        <v>34</v>
+      </c>
+      <c r="E121">
+        <v>34</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121" t="s">
+        <v>22</v>
+      </c>
+      <c r="H121" t="s">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>105</v>
+      </c>
+      <c r="B122" t="s">
+        <v>82</v>
+      </c>
+      <c r="C122" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122">
+        <v>47</v>
+      </c>
+      <c r="E122">
+        <v>47</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122" t="s">
+        <v>22</v>
+      </c>
+      <c r="H122" t="s">
+        <v>35</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>105</v>
+      </c>
+      <c r="B123" t="s">
+        <v>84</v>
+      </c>
+      <c r="C123" t="s">
+        <v>12</v>
+      </c>
+      <c r="D123">
+        <v>47</v>
+      </c>
+      <c r="E123">
+        <v>47</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123" t="s">
+        <v>22</v>
+      </c>
+      <c r="H123" t="s">
+        <v>35</v>
+      </c>
+      <c r="I123" t="s">
+        <v>106</v>
+      </c>
+      <c r="J123" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>105</v>
+      </c>
+      <c r="B124" t="s">
+        <v>86</v>
+      </c>
+      <c r="C124" t="s">
+        <v>12</v>
+      </c>
+      <c r="D124">
+        <v>47</v>
+      </c>
+      <c r="E124">
+        <v>47</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124" t="s">
+        <v>22</v>
+      </c>
+      <c r="H124" t="s">
+        <v>35</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>105</v>
+      </c>
+      <c r="B125" t="s">
+        <v>88</v>
+      </c>
+      <c r="C125" t="s">
+        <v>12</v>
+      </c>
+      <c r="D125">
+        <v>47</v>
+      </c>
+      <c r="E125">
+        <v>46</v>
+      </c>
+      <c r="F125">
+        <v>-1</v>
+      </c>
+      <c r="G125" t="s">
+        <v>31</v>
+      </c>
+      <c r="H125" t="s">
+        <v>35</v>
+      </c>
+      <c r="I125" t="s">
+        <v>106</v>
+      </c>
+      <c r="J125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>105</v>
+      </c>
+      <c r="B126" t="s">
+        <v>89</v>
+      </c>
+      <c r="C126" t="s">
+        <v>12</v>
+      </c>
+      <c r="D126">
+        <v>47</v>
+      </c>
+      <c r="E126">
+        <v>47</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126" t="s">
+        <v>22</v>
+      </c>
+      <c r="H126" t="s">
+        <v>35</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" t="s">
+        <v>82</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127">
+        <v>55</v>
+      </c>
+      <c r="E127">
+        <v>55</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127" t="s">
+        <v>22</v>
+      </c>
+      <c r="H127" t="s">
+        <v>35</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>108</v>
+      </c>
+      <c r="B128" t="s">
+        <v>84</v>
+      </c>
+      <c r="C128" t="s">
+        <v>12</v>
+      </c>
+      <c r="D128">
+        <v>55</v>
+      </c>
+      <c r="E128">
+        <v>55</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128" t="s">
+        <v>22</v>
+      </c>
+      <c r="H128" t="s">
+        <v>35</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129">
+        <v>55</v>
+      </c>
+      <c r="E129">
+        <v>55</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129" t="s">
+        <v>22</v>
+      </c>
+      <c r="H129" t="s">
+        <v>35</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>108</v>
+      </c>
+      <c r="B130" t="s">
+        <v>88</v>
+      </c>
+      <c r="C130" t="s">
+        <v>12</v>
+      </c>
+      <c r="D130">
+        <v>55</v>
+      </c>
+      <c r="E130">
+        <v>55</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>22</v>
+      </c>
+      <c r="H130" t="s">
+        <v>35</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>108</v>
+      </c>
+      <c r="B131" t="s">
+        <v>89</v>
+      </c>
+      <c r="C131" t="s">
+        <v>12</v>
+      </c>
+      <c r="D131">
+        <v>55</v>
+      </c>
+      <c r="E131">
+        <v>55</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>22</v>
+      </c>
+      <c r="H131" t="s">
+        <v>35</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" t="s">
+        <v>82</v>
+      </c>
+      <c r="C132" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <v>35</v>
+      </c>
+      <c r="F132">
+        <v>-1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>24</v>
+      </c>
+      <c r="I132" t="s">
+        <v>110</v>
+      </c>
+      <c r="J132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133">
+        <v>36</v>
+      </c>
+      <c r="E133">
+        <v>36</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>22</v>
+      </c>
+      <c r="H133" t="s">
+        <v>24</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" t="s">
+        <v>86</v>
+      </c>
+      <c r="C134" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <v>36</v>
+      </c>
+      <c r="E134">
+        <v>35</v>
+      </c>
+      <c r="F134">
+        <v>-1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s">
+        <v>24</v>
+      </c>
+      <c r="I134" t="s">
+        <v>110</v>
+      </c>
+      <c r="J134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" t="s">
+        <v>88</v>
+      </c>
+      <c r="C135" t="s">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <v>36</v>
+      </c>
+      <c r="E135">
+        <v>36</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>22</v>
+      </c>
+      <c r="H135" t="s">
+        <v>24</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" t="s">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <v>36</v>
+      </c>
+      <c r="E136">
+        <v>36</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>22</v>
+      </c>
+      <c r="H136" t="s">
+        <v>24</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>111</v>
+      </c>
+      <c r="B137" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" t="s">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <v>44</v>
+      </c>
+      <c r="E137">
+        <v>44</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>22</v>
+      </c>
+      <c r="H137" t="s">
+        <v>24</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>111</v>
+      </c>
+      <c r="B138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C138" t="s">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <v>44</v>
+      </c>
+      <c r="E138">
+        <v>45</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>24</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+      <c r="B139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>44</v>
+      </c>
+      <c r="E139">
+        <v>43</v>
+      </c>
+      <c r="F139">
+        <v>-1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" t="s">
+        <v>24</v>
+      </c>
+      <c r="I139" t="s">
+        <v>113</v>
+      </c>
+      <c r="J139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>111</v>
+      </c>
+      <c r="B140" t="s">
+        <v>88</v>
+      </c>
+      <c r="C140" t="s">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>44</v>
+      </c>
+      <c r="E140">
+        <v>44</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>22</v>
+      </c>
+      <c r="H140" t="s">
+        <v>24</v>
+      </c>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>111</v>
+      </c>
+      <c r="B141" t="s">
+        <v>89</v>
+      </c>
+      <c r="C141" t="s">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <v>44</v>
+      </c>
+      <c r="E141">
+        <v>44</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>22</v>
+      </c>
+      <c r="H141" t="s">
+        <v>24</v>
+      </c>
+      <c r="I141" t="s">
+        <v>112</v>
+      </c>
+      <c r="J141" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>115</v>
+      </c>
+      <c r="B142" t="s">
+        <v>82</v>
+      </c>
+      <c r="C142" t="s">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <v>25</v>
+      </c>
+      <c r="E142">
+        <v>25</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>22</v>
+      </c>
+      <c r="H142" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <v>25</v>
+      </c>
+      <c r="E143">
+        <v>25</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143" t="s">
+        <v>22</v>
+      </c>
+      <c r="H143" t="s">
+        <v>69</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>115</v>
+      </c>
+      <c r="B144" t="s">
+        <v>86</v>
+      </c>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <v>25</v>
+      </c>
+      <c r="E144">
+        <v>25</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144" t="s">
+        <v>22</v>
+      </c>
+      <c r="H144" t="s">
+        <v>69</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>115</v>
+      </c>
+      <c r="B145" t="s">
+        <v>88</v>
+      </c>
+      <c r="C145" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <v>25</v>
+      </c>
+      <c r="E145">
+        <v>25</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145" t="s">
+        <v>22</v>
+      </c>
+      <c r="H145" t="s">
+        <v>69</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>115</v>
+      </c>
+      <c r="B146" t="s">
+        <v>89</v>
+      </c>
+      <c r="C146" t="s">
+        <v>12</v>
+      </c>
+      <c r="D146">
+        <v>25</v>
+      </c>
+      <c r="E146">
+        <v>25</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146" t="s">
+        <v>22</v>
+      </c>
+      <c r="H146" t="s">
+        <v>69</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" t="s">
+        <v>82</v>
+      </c>
+      <c r="C147" t="s">
+        <v>12</v>
+      </c>
+      <c r="D147">
+        <v>51</v>
+      </c>
+      <c r="E147">
+        <v>51</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>22</v>
+      </c>
+      <c r="H147" t="s">
+        <v>35</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>116</v>
+      </c>
+      <c r="B148" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148">
+        <v>51</v>
+      </c>
+      <c r="E148">
+        <v>52</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" t="s">
+        <v>13</v>
+      </c>
+      <c r="H148" t="s">
+        <v>35</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" t="s">
+        <v>86</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149">
+        <v>51</v>
+      </c>
+      <c r="E149">
+        <v>51</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>22</v>
+      </c>
+      <c r="H149" t="s">
+        <v>35</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150">
+        <v>51</v>
+      </c>
+      <c r="E150">
+        <v>51</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>22</v>
+      </c>
+      <c r="H150" t="s">
+        <v>35</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151">
+        <v>51</v>
+      </c>
+      <c r="E151">
+        <v>50</v>
+      </c>
+      <c r="F151">
+        <v>-1</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" t="s">
+        <v>35</v>
+      </c>
+      <c r="I151" t="s">
+        <v>118</v>
+      </c>
+      <c r="J151" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
